--- a/DIC/ManuallyProcessed/Day0_DIC.xlsx
+++ b/DIC/ManuallyProcessed/Day0_DIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart076\Documents\rcsfa-RC3-BSLE-DIT-degradation\DIC\ManuallyProcessed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA4ACDB-B657-42EC-9E23-649D4869D050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D647B5D-D460-4567-BAAD-6509FB8D1C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="060324_EBSD_DIT_Day0_DIC" sheetId="1" r:id="rId1"/>
@@ -10342,8 +10342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BH981"/>
   <sheetViews>
-    <sheetView topLeftCell="AC35" zoomScale="78" workbookViewId="0">
-      <selection activeCell="AJ67" sqref="AJ67:AP83"/>
+    <sheetView tabSelected="1" topLeftCell="AA34" zoomScale="78" workbookViewId="0">
+      <selection activeCell="AO83" sqref="AO83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -14745,8 +14745,8 @@
         <v>144.35601953986551</v>
       </c>
       <c r="AN70" s="159">
-        <f>STDEV(AA70:AA72)</f>
-        <v>2.5956040504394995</v>
+        <f>STDEV(AA70:AA73)</f>
+        <v>2.185086539763585</v>
       </c>
       <c r="AO70" s="161">
         <v>4</v>
@@ -15242,15 +15242,15 @@
         <v>22</v>
       </c>
       <c r="AC74" s="153">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AD74" s="154">
         <f t="shared" si="55"/>
-        <v>0.99891225757928104</v>
+        <v>0.9990258775032208</v>
       </c>
       <c r="AE74" s="155">
         <f t="shared" si="56"/>
-        <v>104.68436242668375</v>
+        <v>104.67245659965319</v>
       </c>
       <c r="AF74" s="156">
         <v>0</v>
@@ -15264,15 +15264,15 @@
       </c>
       <c r="AI74" s="155">
         <f t="shared" si="58"/>
-        <v>104.68436242668375</v>
+        <v>104.67245659965319</v>
       </c>
       <c r="AJ74" s="160">
         <f>AVERAGE(AI74:AI76)</f>
-        <v>104.573249713942</v>
+        <v>104.56135652383932</v>
       </c>
       <c r="AK74" s="159">
         <f>STDEV(AI74:AI76)</f>
-        <v>0.13396985936954373</v>
+        <v>0.13395462288210958</v>
       </c>
       <c r="AL74" s="159">
         <v>3</v>
@@ -15388,16 +15388,16 @@
       <c r="AB75" s="171">
         <v>22</v>
       </c>
-      <c r="AC75" s="172">
-        <v>1.5</v>
+      <c r="AC75" s="153">
+        <v>1.65</v>
       </c>
       <c r="AD75" s="173">
         <f t="shared" si="55"/>
-        <v>0.99891225757928104</v>
+        <v>0.9990258775032208</v>
       </c>
       <c r="AE75" s="174">
         <f t="shared" si="56"/>
-        <v>104.61090492884784</v>
+        <v>104.59900745619079</v>
       </c>
       <c r="AF75" s="175">
         <v>0</v>
@@ -15411,7 +15411,7 @@
       </c>
       <c r="AI75" s="174">
         <f t="shared" si="58"/>
-        <v>104.61090492884784</v>
+        <v>104.59900745619079</v>
       </c>
       <c r="AJ75" s="179"/>
       <c r="AK75" s="178"/>
@@ -15517,16 +15517,16 @@
       <c r="AB76" s="189">
         <v>22</v>
       </c>
-      <c r="AC76" s="190">
-        <v>1.5</v>
+      <c r="AC76" s="153">
+        <v>1.65</v>
       </c>
       <c r="AD76" s="191">
         <f t="shared" si="55"/>
-        <v>0.99891225757928104</v>
+        <v>0.9990258775032208</v>
       </c>
       <c r="AE76" s="192">
         <f t="shared" si="56"/>
-        <v>104.42448178629442</v>
+        <v>104.41260551567402</v>
       </c>
       <c r="AF76" s="193">
         <v>0</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="AI76" s="192">
         <f t="shared" si="58"/>
-        <v>104.42448178629442</v>
+        <v>104.41260551567402</v>
       </c>
       <c r="AJ76" s="196"/>
       <c r="AK76" s="197"/>
@@ -15647,15 +15647,15 @@
         <v>22</v>
       </c>
       <c r="AC77" s="153">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AD77" s="154">
         <f t="shared" si="55"/>
-        <v>0.99891225757928104</v>
+        <v>0.9990258775032208</v>
       </c>
       <c r="AE77" s="155">
         <f t="shared" si="56"/>
-        <v>88.100269222769015</v>
+        <v>88.090249516459522</v>
       </c>
       <c r="AF77" s="156">
         <v>0</v>
@@ -15669,15 +15669,15 @@
       </c>
       <c r="AI77" s="155">
         <f t="shared" si="58"/>
-        <v>88.100269222769015</v>
+        <v>88.090249516459522</v>
       </c>
       <c r="AJ77" s="160">
         <f>AVERAGE(AI77:AI79)</f>
-        <v>88.031192511903555</v>
+        <v>88.021180661737546</v>
       </c>
       <c r="AK77" s="159">
         <f>STDEV(AI77:AI79)</f>
-        <v>7.7277856529843786E-2</v>
+        <v>7.7269067664223992E-2</v>
       </c>
       <c r="AL77" s="159">
         <v>3</v>
@@ -15794,15 +15794,15 @@
         <v>22</v>
       </c>
       <c r="AC78" s="172">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AD78" s="173">
         <f t="shared" si="55"/>
-        <v>0.99891225757928104</v>
+        <v>0.9990258775032208</v>
       </c>
       <c r="AE78" s="174">
         <f t="shared" si="56"/>
-        <v>87.947734087768353</v>
+        <v>87.937731729388318</v>
       </c>
       <c r="AF78" s="175">
         <v>0</v>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="AI78" s="174">
         <f t="shared" si="58"/>
-        <v>87.947734087768353</v>
+        <v>87.937731729388318</v>
       </c>
       <c r="AJ78" s="179"/>
       <c r="AK78" s="178"/>
@@ -15923,15 +15923,15 @@
         <v>22</v>
       </c>
       <c r="AC79" s="190">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AD79" s="191">
         <f t="shared" si="55"/>
-        <v>0.99891225757928104</v>
+        <v>0.9990258775032208</v>
       </c>
       <c r="AE79" s="192">
         <f t="shared" si="56"/>
-        <v>88.045574225173283</v>
+        <v>88.035560739364783</v>
       </c>
       <c r="AF79" s="193">
         <v>0</v>
@@ -15945,7 +15945,7 @@
       </c>
       <c r="AI79" s="192">
         <f t="shared" si="58"/>
-        <v>88.045574225173283</v>
+        <v>88.035560739364783</v>
       </c>
       <c r="AJ79" s="196"/>
       <c r="AK79" s="197"/>
@@ -42224,7 +42224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
